--- a/InputData/elec/ELF/Equipment Load Factors.xlsx
+++ b/InputData/elec/ELF/Equipment Load Factors.xlsx
@@ -1686,14 +1686,14 @@
         </is>
       </c>
       <c r="B2" s="12" t="n">
-        <v>3.11442</v>
+        <v>2.38232</v>
       </c>
       <c r="C2" s="12">
         <f>B2</f>
         <v/>
       </c>
       <c r="D2" s="12" t="n">
-        <v>3.61922</v>
+        <v>1.35615</v>
       </c>
     </row>
     <row r="3">
@@ -1735,14 +1735,14 @@
         </is>
       </c>
       <c r="B5" s="12" t="n">
-        <v>1.70901</v>
+        <v>1.81663</v>
       </c>
       <c r="C5" s="12">
         <f>B5</f>
         <v/>
       </c>
       <c r="D5" s="12" t="n">
-        <v>1.23863</v>
+        <v>1.36427</v>
       </c>
     </row>
     <row r="6">
@@ -1776,7 +1776,7 @@
         <v/>
       </c>
       <c r="D7" s="12" t="n">
-        <v>1.23863</v>
+        <v>1.36427</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="13"/>
@@ -2832,14 +2832,14 @@
         </is>
       </c>
       <c r="B3" s="12" t="n">
-        <v>4.25308</v>
+        <v>12.27687</v>
       </c>
       <c r="C3" s="12">
         <f>B3</f>
         <v/>
       </c>
       <c r="D3" s="12" t="n">
-        <v>5.30146</v>
+        <v>12.40773</v>
       </c>
     </row>
     <row r="4">
@@ -2865,14 +2865,14 @@
         </is>
       </c>
       <c r="B5" s="12" t="n">
-        <v>1.39257</v>
+        <v>1.48026</v>
       </c>
       <c r="C5" s="12">
         <f>B5</f>
         <v/>
       </c>
       <c r="D5" s="12" t="n">
-        <v>1.52952</v>
+        <v>1.68467</v>
       </c>
     </row>
     <row r="6">
@@ -2906,7 +2906,7 @@
         <v/>
       </c>
       <c r="D7" s="12" t="n">
-        <v>1.52952</v>
+        <v>1.68467</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="13"/>
@@ -3963,10 +3963,10 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.10229</v>
+        <v>1.10177</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.03264</v>
+        <v>1.03216</v>
       </c>
     </row>
     <row r="5">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.10229</v>
+        <v>1.10177</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.03264</v>
+        <v>1.03216</v>
       </c>
     </row>
     <row r="6">
@@ -3989,10 +3989,10 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.10229</v>
+        <v>1.10177</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.03264</v>
+        <v>1.03216</v>
       </c>
     </row>
     <row r="7">
@@ -4002,10 +4002,10 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>1.10229</v>
+        <v>1.10177</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>1.03264</v>
+        <v>1.03216</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="13"/>

--- a/InputData/elec/ELF/Equipment Load Factors.xlsx
+++ b/InputData/elec/ELF/Equipment Load Factors.xlsx
@@ -1686,14 +1686,14 @@
         </is>
       </c>
       <c r="B2" s="12" t="n">
-        <v>2.38232</v>
+        <v>3.11442</v>
       </c>
       <c r="C2" s="12">
         <f>B2</f>
         <v/>
       </c>
       <c r="D2" s="12" t="n">
-        <v>1.35615</v>
+        <v>6.31926</v>
       </c>
     </row>
     <row r="3">
@@ -1735,14 +1735,14 @@
         </is>
       </c>
       <c r="B5" s="12" t="n">
-        <v>1.81663</v>
+        <v>1.91307</v>
       </c>
       <c r="C5" s="12">
         <f>B5</f>
         <v/>
       </c>
       <c r="D5" s="12" t="n">
-        <v>1.36427</v>
+        <v>1.23863</v>
       </c>
     </row>
     <row r="6">
@@ -1776,7 +1776,7 @@
         <v/>
       </c>
       <c r="D7" s="12" t="n">
-        <v>1.36427</v>
+        <v>1.23863</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="13"/>
@@ -2865,14 +2865,14 @@
         </is>
       </c>
       <c r="B5" s="12" t="n">
-        <v>1.48026</v>
+        <v>1.66957</v>
       </c>
       <c r="C5" s="12">
         <f>B5</f>
         <v/>
       </c>
       <c r="D5" s="12" t="n">
-        <v>1.68467</v>
+        <v>1.73016</v>
       </c>
     </row>
     <row r="6">
@@ -2906,7 +2906,7 @@
         <v/>
       </c>
       <c r="D7" s="12" t="n">
-        <v>1.68467</v>
+        <v>1.73016</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="13"/>
@@ -3963,10 +3963,10 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.10177</v>
+        <v>2341.3482</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.03216</v>
+        <v>2193.41911</v>
       </c>
     </row>
     <row r="5">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.10177</v>
+        <v>2341.3482</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.03216</v>
+        <v>2193.41911</v>
       </c>
     </row>
     <row r="6">
@@ -3989,10 +3989,10 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.10177</v>
+        <v>2341.3482</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.03216</v>
+        <v>2193.41911</v>
       </c>
     </row>
     <row r="7">
@@ -4002,10 +4002,10 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>1.10177</v>
+        <v>2341.3482</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>1.03216</v>
+        <v>2193.41911</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="13"/>

--- a/InputData/elec/ELF/Equipment Load Factors.xlsx
+++ b/InputData/elec/ELF/Equipment Load Factors.xlsx
@@ -1693,7 +1693,7 @@
         <v/>
       </c>
       <c r="D2" s="12" t="n">
-        <v>6.31926</v>
+        <v>1.35615</v>
       </c>
     </row>
     <row r="3">
@@ -1742,7 +1742,7 @@
         <v/>
       </c>
       <c r="D5" s="12" t="n">
-        <v>1.23863</v>
+        <v>1.40111</v>
       </c>
     </row>
     <row r="6">
@@ -1776,7 +1776,7 @@
         <v/>
       </c>
       <c r="D7" s="12" t="n">
-        <v>1.23863</v>
+        <v>1.40111</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="13"/>
@@ -2832,14 +2832,14 @@
         </is>
       </c>
       <c r="B3" s="12" t="n">
-        <v>12.27687</v>
+        <v>3.15878</v>
       </c>
       <c r="C3" s="12">
         <f>B3</f>
         <v/>
       </c>
       <c r="D3" s="12" t="n">
-        <v>12.40773</v>
+        <v>2.101</v>
       </c>
     </row>
     <row r="4">
@@ -3963,10 +3963,10 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2341.3482</v>
+        <v>1.10177</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2193.41911</v>
+        <v>1.03216</v>
       </c>
     </row>
     <row r="5">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2341.3482</v>
+        <v>1.10177</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2193.41911</v>
+        <v>1.03216</v>
       </c>
     </row>
     <row r="6">
@@ -3989,10 +3989,10 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2341.3482</v>
+        <v>1.10177</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>2193.41911</v>
+        <v>1.03216</v>
       </c>
     </row>
     <row r="7">
@@ -4002,10 +4002,10 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>2341.3482</v>
+        <v>1.10177</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>2193.41911</v>
+        <v>1.03216</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="13"/>

--- a/InputData/elec/ELF/Equipment Load Factors.xlsx
+++ b/InputData/elec/ELF/Equipment Load Factors.xlsx
@@ -129,6 +129,74 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
